--- a/exercises/dennis/exercise_4/Task_4_subgrid_results/res_line/loading_percent.xlsx
+++ b/exercises/dennis/exercise_4/Task_4_subgrid_results/res_line/loading_percent.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.30848926483631</v>
+        <v>10.30848926489851</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.351395865523857</v>
+        <v>9.351395865506205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86199161247335</v>
+        <v>10.86199161238552</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.267775695283472</v>
+        <v>8.267775695432178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.02156308996552</v>
+        <v>8.02156308997594</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17253956436137</v>
+        <v>11.1725395644155</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.01526520389606</v>
+        <v>10.0152652040161</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.28790840677865</v>
+        <v>10.28790840668892</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.23717246785923</v>
+        <v>15.23717246781117</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.72267071331544</v>
+        <v>14.7226707132647</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.31530492202345</v>
+        <v>11.31530492199827</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.29679688092396</v>
+        <v>17.29679688093118</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.91159697459713</v>
+        <v>12.91159697455737</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.81463307423917</v>
+        <v>16.8146330743627</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.28416630916709</v>
+        <v>20.28416630909841</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.48815089089799</v>
+        <v>16.48815089097715</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.35139272661133</v>
+        <v>17.35139272679224</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.02153694523899</v>
+        <v>15.02153694512602</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.88868149011836</v>
+        <v>11.88868149014707</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.99082945437378</v>
+        <v>17.99082945443303</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.00617598754553</v>
+        <v>17.00617598755834</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.52685583532351</v>
+        <v>21.52685583519597</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.2264234009669</v>
+        <v>20.22642340093999</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.72482348784611</v>
+        <v>16.72482348800271</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>16.49238964554371</v>
+        <v>16.49238964540493</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.69640857932337</v>
+        <v>18.69640857942827</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17.74791136174922</v>
+        <v>17.74791136177852</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>11.6608990749676</v>
+        <v>11.66089907491058</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.052867579997914</v>
+        <v>8.05286757990932</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17.64009159524004</v>
+        <v>17.64009159509871</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21.1782354552512</v>
+        <v>21.17823545527622</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22.97946101620589</v>
+        <v>22.97946101618054</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22.05413847448735</v>
+        <v>22.05413847455223</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>26.97741818948238</v>
+        <v>26.97741818953393</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>34.89767271878984</v>
+        <v>34.8976727187852</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42.4405892183117</v>
+        <v>42.4405892183252</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>43.9069495912131</v>
+        <v>43.90694959103477</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>52.92476630269327</v>
+        <v>52.92476630266019</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>58.9620213789401</v>
+        <v>58.96202137889887</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>66.67555182732347</v>
+        <v>66.67555182738315</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>74.78881326436164</v>
+        <v>74.78881326435464</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>82.11402035765526</v>
+        <v>82.1140203154043</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96.12077153421885</v>
+        <v>96.12077153421572</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>90.47201139425167</v>
+        <v>90.47201139436027</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>99.05711920281016</v>
+        <v>99.05711920271217</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>95.55247561250437</v>
+        <v>95.55247561231543</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>94.57969113346175</v>
+        <v>94.57969113330516</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>95.74451637237982</v>
+        <v>95.74451637240738</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>98.76510277833596</v>
+        <v>98.76510277826601</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>98.83841785236875</v>
+        <v>98.83841785241465</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>86.23540171742341</v>
+        <v>86.23540171735591</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>88.60205787463831</v>
+        <v>88.60205787469145</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>85.39555019159602</v>
+        <v>85.39555019181138</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>81.92760295108673</v>
+        <v>81.92760292816567</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>78.28143174463949</v>
+        <v>78.28143174469464</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>80.63771283097945</v>
+        <v>80.63771283096266</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>72.82782470574382</v>
+        <v>72.82782470577125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>72.63953961839283</v>
+        <v>72.63953961831982</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>68.56364067444882</v>
+        <v>68.56364067444143</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>63.08525641416717</v>
+        <v>63.08525641404621</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>63.30634936038913</v>
+        <v>63.30634936054781</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>55.60291588965133</v>
+        <v>55.60291588961673</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>60.82742286779621</v>
+        <v>60.82742286782259</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>53.28959512600693</v>
+        <v>53.28959512606028</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>44.50752642962628</v>
+        <v>44.50752642974719</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>35.93861022456134</v>
+        <v>35.93861022453961</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>28.09211910604235</v>
+        <v>28.09211910604301</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>22.46862977867976</v>
+        <v>22.46862977860517</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.527188382788589</v>
+        <v>8.52718838278825</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.383470221647887</v>
+        <v>7.383470221648785</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>17.76065955937431</v>
+        <v>17.76065955932668</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33.28467294517463</v>
+        <v>33.28467294524883</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>35.74990223396779</v>
+        <v>35.74990223388456</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>47.8806145337909</v>
+        <v>47.88061453383707</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>63.43452774313836</v>
+        <v>63.43452774300297</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>71.90330781993055</v>
+        <v>71.90330781989908</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>84.83565670861066</v>
+        <v>84.83565670858995</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>79.03464795334449</v>
+        <v>79.03464795341347</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>84.54631226160618</v>
+        <v>84.54631226159334</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>86.79710352093973</v>
+        <v>86.7971035206579</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>94.06743329653136</v>
+        <v>94.06743318311743</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>87.34119120597198</v>
+        <v>87.34119120588049</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>78.16696656916933</v>
+        <v>78.16696656926133</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>78.4278741017942</v>
+        <v>78.42787410186082</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>66.28047342196729</v>
+        <v>66.28047342205438</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>71.62852903778662</v>
+        <v>71.6285290377174</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>66.65211761982897</v>
+        <v>66.65211761970899</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>50.75805556937387</v>
+        <v>50.75805556941339</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>53.62499962095273</v>
+        <v>53.62499962089834</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>42.30255236233226</v>
+        <v>42.30255236240818</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>30.22054217183159</v>
+        <v>30.2205421718649</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21.95102583878252</v>
+        <v>21.95102583890677</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>16.97700748308009</v>
+        <v>16.97700748308413</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>10.3145722821039</v>
+        <v>10.31457228209705</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.85221938131297</v>
+        <v>7.852219381364343</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.815744434670977</v>
+        <v>9.815744434505765</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.947368501530128</v>
+        <v>7.947368501585818</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>10.00566935057105</v>
+        <v>10.00566935073222</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10.06871120092875</v>
+        <v>10.06871120088353</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13.83517871357238</v>
+        <v>13.83517871355324</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.857041550798034</v>
+        <v>9.857041550704929</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.2309780827056</v>
+        <v>13.2309780827756</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>11.70634800838706</v>
+        <v>11.70634800846964</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>14.87525988832895</v>
+        <v>14.87525988830773</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>12.25027280329556</v>
+        <v>12.25027280328436</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>13.31453061369667</v>
+        <v>13.31453061365315</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>15.52168527239073</v>
+        <v>15.52168527225103</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>17.88275690618161</v>
+        <v>17.88275690605408</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>15.11233977954338</v>
+        <v>15.11233977968668</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>16.90944105497143</v>
+        <v>16.90944105482225</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>14.850628515515</v>
+        <v>14.85062851532766</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>11.705306831086</v>
+        <v>11.70530683103524</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11.17180885429431</v>
+        <v>11.17180885423574</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>12.56512458639752</v>
+        <v>12.5651245862914</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.04436621030485</v>
+        <v>18.04436621035049</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>15.3146677861174</v>
+        <v>15.31466778597648</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19.48362198270628</v>
+        <v>19.48362198262256</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>20.7117134397215</v>
+        <v>20.71171343978712</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20.54889247661712</v>
+        <v>20.54889247660457</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>18.56495268829952</v>
+        <v>18.56495268820013</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.01461657265106</v>
+        <v>18.01461657258833</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>21.35828302150507</v>
+        <v>21.35828302153818</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>13.4668272966597</v>
+        <v>13.46682729652289</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>16.17007509801241</v>
+        <v>16.17007509817184</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9.837737336877769</v>
+        <v>9.837737336892136</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>15.65557345746143</v>
+        <v>15.655573457469</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>16.23406335507975</v>
+        <v>16.23406335503258</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>19.01664532855582</v>
+        <v>19.01664532866677</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>21.98237012024639</v>
+        <v>21.98237012036422</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.29974808342515</v>
+        <v>24.29974808338772</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>35.43538490418084</v>
+        <v>35.43538490394914</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>35.92608542910708</v>
+        <v>35.92608542913773</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>49.78305120251656</v>
+        <v>49.7830512025556</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>59.20905370239343</v>
+        <v>59.20905370231006</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>63.05468744689057</v>
+        <v>63.05468744707261</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>66.82763641456512</v>
+        <v>66.82763641466562</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>81.09963678961883</v>
+        <v>81.09963675173978</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>86.64989853385295</v>
+        <v>86.64989853400097</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>91.58881568738765</v>
+        <v>91.58881568739987</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>93.23534076308981</v>
+        <v>93.2353407630894</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>95.72184462404036</v>
+        <v>95.72184462418012</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>96.20777252570262</v>
+        <v>96.20777252561294</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>94.5482023272383</v>
+        <v>94.54820232741471</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>96.44455785060258</v>
+        <v>96.44455785054211</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>96.6700508495677</v>
+        <v>96.67005084952002</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>92.93513654973337</v>
+        <v>92.93513654965373</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>89.47391165071522</v>
+        <v>89.47391165067826</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>89.7465364021247</v>
+        <v>89.74653640217505</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>87.5346462870706</v>
+        <v>87.53464628724849</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>86.9140510271997</v>
+        <v>86.91405102720749</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>81.26556141631609</v>
+        <v>81.26556139492378</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>73.55356144564757</v>
+        <v>73.55356144577895</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>75.99469729965264</v>
+        <v>75.99469729962267</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>77.93648761593074</v>
+        <v>77.93648761576772</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>63.86257334210327</v>
+        <v>63.86257334212458</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>68.884848734543</v>
+        <v>68.88484873461249</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>60.7736455610983</v>
+        <v>60.77364556098522</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>54.56537244001425</v>
+        <v>54.56537244018033</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>56.40614406024345</v>
+        <v>56.40614406014627</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>51.1162369997211</v>
+        <v>51.11623699970711</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>51.54702375246087</v>
+        <v>51.54702375242938</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>41.03842512543302</v>
+        <v>41.03842512521705</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>30.51722457768815</v>
+        <v>30.51722457759464</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>24.34843407170467</v>
+        <v>24.34843407149066</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>13.70100896664919</v>
+        <v>13.70100896673607</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.502647334331115</v>
+        <v>9.502647334354924</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>17.16661501832174</v>
+        <v>17.16661501837477</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>31.93351960209081</v>
+        <v>31.9335196019135</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>40.01324320555837</v>
+        <v>40.01324320544003</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>51.28603556475729</v>
+        <v>51.28603556463798</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>61.74136546209916</v>
+        <v>61.74136546212045</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>68.00126901965544</v>
+        <v>68.00126901953945</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>76.24329274420009</v>
+        <v>76.24329274402601</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>84.70514911834159</v>
+        <v>84.70514911835717</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>86.01846860569572</v>
+        <v>86.01846860566107</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>86.92450576733034</v>
+        <v>86.92450576724431</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>92.89029147189905</v>
+        <v>92.89029137255338</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>81.25362391038327</v>
+        <v>81.2536239104915</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>86.33546487765872</v>
+        <v>86.33546487768804</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>81.04217083734576</v>
+        <v>81.0421708375186</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>69.88087853140355</v>
+        <v>69.88087853136527</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>66.36192855646927</v>
+        <v>66.36192855645008</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>60.17487073222896</v>
+        <v>60.17487073204616</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>60.36665816291996</v>
+        <v>60.36665816282066</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>50.10531470399845</v>
+        <v>50.10531470400624</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>38.25697471778822</v>
+        <v>38.25697471770363</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>33.59702378292921</v>
+        <v>33.59702378297288</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>28.22671186792567</v>
+        <v>28.22671186791258</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>21.85134705981802</v>
+        <v>21.85134705980231</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.18767209479982</v>
+        <v>12.18767209475207</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>8.037308872359088</v>
+        <v>8.037308872321189</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8.732289038885677</v>
+        <v>8.732289038987886</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8.45318561240029</v>
+        <v>8.453185612330525</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8.869345575203127</v>
+        <v>8.869345575211957</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8.014430360028257</v>
+        <v>8.014430360110609</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.028773658585656</v>
+        <v>9.028773658564937</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.61123262428742</v>
+        <v>10.6112326243846</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.02805748747411</v>
+        <v>13.02805748761104</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10.45695028808757</v>
+        <v>10.45695028810252</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.15824036751652</v>
+        <v>11.15824036763184</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.81121799847886</v>
+        <v>11.81121799848414</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.943532308262572</v>
+        <v>9.943532308279449</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14.16959744526618</v>
+        <v>14.16959744515211</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>15.84712112956947</v>
+        <v>15.847121129698</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>18.07923554315852</v>
+        <v>18.07923554298222</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.63937017399828</v>
+        <v>11.63937017401072</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.65294448147345</v>
+        <v>13.65294448137159</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>17.39746672250788</v>
+        <v>17.39746672256187</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>18.60893969854194</v>
+        <v>18.60893969860474</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14.53550313185766</v>
+        <v>14.53550313192544</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.82849490349317</v>
+        <v>15.82849490341525</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>24.63598144756438</v>
+        <v>24.63598144762244</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>20.51568182501834</v>
+        <v>20.51568182519546</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>19.63336402003638</v>
+        <v>19.63336401992734</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>23.78776699074158</v>
+        <v>23.78776699070533</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>22.01817377036619</v>
+        <v>22.0181737703117</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>17.01670158077395</v>
+        <v>17.01670158078893</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.88671865573869</v>
+        <v>14.88671865571672</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>16.8165871707333</v>
+        <v>16.81658717063784</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.88515579316356</v>
+        <v>12.88515579310453</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.61190145102053</v>
+        <v>13.61190145106422</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>14.17270130743471</v>
+        <v>14.17270130739348</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>14.49874360314312</v>
+        <v>14.49874360318452</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>19.10421048607498</v>
+        <v>19.10421048616657</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>22.33667094015161</v>
+        <v>22.33667094041788</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>20.50951305217034</v>
+        <v>20.50951305214276</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>35.64575131542816</v>
+        <v>35.64575131542632</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>43.71640289717267</v>
+        <v>43.71640289719055</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>50.4807621433106</v>
+        <v>50.48076214340903</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>54.52314472931852</v>
+        <v>54.52314472940832</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>66.11387066004794</v>
+        <v>66.11387066020805</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>68.69001655456582</v>
+        <v>68.69001655442239</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>79.74416593756266</v>
+        <v>79.74416593769186</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>84.45858293387164</v>
+        <v>84.45858293383807</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>87.51999861601747</v>
+        <v>87.51999861592151</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>95.49292841849845</v>
+        <v>95.49292841846572</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>97.73898251064091</v>
+        <v>97.73898251052846</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>93.46483117878081</v>
+        <v>93.46483117866356</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>99.6193167127379</v>
+        <v>99.61931671266633</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>96.78606599962157</v>
+        <v>96.78606599957918</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>96.28779395775075</v>
+        <v>96.28779395773009</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>92.92912819503678</v>
+        <v>92.92912819496743</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>91.28687885657266</v>
+        <v>91.28687885637797</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>84.98161942789505</v>
+        <v>84.98161942795352</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>90.40006374915957</v>
+        <v>90.40006374906059</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>84.65202869045652</v>
+        <v>84.6520286905461</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>83.4319406067179</v>
+        <v>83.43194058042265</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>79.99546725022857</v>
+        <v>79.99546725029977</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>74.03547816538844</v>
+        <v>74.03547816529132</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>70.71740560046533</v>
+        <v>70.71740560040371</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>69.53568092147138</v>
+        <v>69.53568092174829</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>64.46044790938438</v>
+        <v>64.4604479094147</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>63.66424769066388</v>
+        <v>63.6642476906565</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>58.05351996106815</v>
+        <v>58.05351996100112</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>53.71394895423813</v>
+        <v>53.71394895416057</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>56.32865641707544</v>
+        <v>56.32865641718405</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>49.97244980566682</v>
+        <v>49.97244980558013</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>42.40607078100343</v>
+        <v>42.40607078112178</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>25.03056963084199</v>
+        <v>25.03056963075172</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>19.38968922358709</v>
+        <v>19.38968922355679</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>9.826102838310103</v>
+        <v>9.826102838340059</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7.982258652163601</v>
+        <v>7.982258652171488</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>19.38710160047536</v>
+        <v>19.38710160050012</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>33.01230262568643</v>
+        <v>33.01230262559147</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>37.21305719450802</v>
+        <v>37.21305719438753</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>48.55686725452154</v>
+        <v>48.55686725471812</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>61.02006777724619</v>
+        <v>61.02006777738258</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>64.61432027235992</v>
+        <v>64.61432027241256</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>79.0259996532513</v>
+        <v>79.02599965304644</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>85.09924071369956</v>
+        <v>85.09924071371981</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>85.29320381882</v>
+        <v>85.29320381882954</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>85.36160018101943</v>
+        <v>85.36160018104739</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>86.01827577990588</v>
+        <v>86.01827577992373</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>80.5544352531338</v>
+        <v>80.55443525320588</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>76.20389919119316</v>
+        <v>76.20389919112178</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>79.86159626563843</v>
+        <v>79.86159626566956</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>67.20802628771921</v>
+        <v>67.2080262875874</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>68.78947147146697</v>
+        <v>68.78947147132511</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>61.39965938213103</v>
+        <v>61.39965938198964</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>62.71663126383329</v>
+        <v>62.71663126404445</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>54.72480538736599</v>
+        <v>54.72480538736701</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>44.42034482440069</v>
+        <v>44.42034482447928</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>32.53663346061336</v>
+        <v>32.53663346058823</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25.08540694249424</v>
+        <v>25.08540694243716</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>13.8259634419396</v>
+        <v>13.82596344188338</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>13.61428157772274</v>
+        <v>13.61428157781699</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>10.40653674216129</v>
+        <v>10.40653674223783</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7.73139500537839</v>
+        <v>7.731395005493519</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>14.18504901161942</v>
+        <v>14.18504901159879</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>9.424646123167898</v>
+        <v>9.424646123006491</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>14.93428686977966</v>
+        <v>14.93428686966985</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8.075269425505068</v>
+        <v>8.075269425443269</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>11.2811433333624</v>
+        <v>11.28114333323423</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8.447033276837947</v>
+        <v>8.447033276841752</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>14.89699674651879</v>
+        <v>14.89699674651968</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>8.362639728483099</v>
+        <v>8.362639728480486</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>14.10148106164451</v>
+        <v>14.10148106168366</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>14.60125878982638</v>
+        <v>14.60125878971178</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>9.417452673633649</v>
+        <v>9.417452673682909</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>14.24262203365725</v>
+        <v>14.24262203362337</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>15.20023582021146</v>
+        <v>15.20023582025955</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>13.25142032144872</v>
+        <v>13.25142032143513</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>11.25134099450758</v>
+        <v>11.25134099462396</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>15.21777167248204</v>
+        <v>15.21777167246189</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>16.1430680562572</v>
+        <v>16.14306805614362</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>19.01675400430565</v>
+        <v>19.01675400437883</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>18.0301587092611</v>
+        <v>18.0301587093925</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>17.11276831940368</v>
+        <v>17.11276831925401</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>14.65014889924516</v>
+        <v>14.65014889913732</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>25.24743131217355</v>
+        <v>25.24743131198893</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>21.06847868978829</v>
+        <v>21.06847868975771</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>19.62944250279774</v>
+        <v>19.62944250279085</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>21.24570136788359</v>
+        <v>21.24570136773682</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>20.13184645039002</v>
+        <v>20.13184645042844</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>15.76538144667519</v>
+        <v>15.76538144654394</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>13.56628375947209</v>
+        <v>13.56628375951627</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>10.25189475581698</v>
+        <v>10.25189475569062</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>14.48852472924705</v>
+        <v>14.48852472927082</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>18.27502173272965</v>
+        <v>18.27502173265676</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>19.33215696294425</v>
+        <v>19.33215696308541</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>22.00167965578433</v>
+        <v>22.00167965581677</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>32.23566235871959</v>
+        <v>32.23566235869108</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>29.35273490416743</v>
+        <v>29.35273490409623</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>39.98203705055099</v>
+        <v>39.9820370506799</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>44.26009299216818</v>
+        <v>44.26009299204747</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>59.23008097150972</v>
+        <v>59.23008097156741</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>66.54435801555736</v>
+        <v>66.54435801543291</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>74.03209591286033</v>
+        <v>74.03209591292863</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>77.74395211055761</v>
+        <v>77.74395211064149</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>84.53343786480222</v>
+        <v>84.53343786489559</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>94.41482475590703</v>
+        <v>94.4148247557808</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>90.56640016999175</v>
+        <v>90.56640017002047</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>95.86020082234518</v>
+        <v>95.86020082229818</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>99.0514033836975</v>
+        <v>99.05140338386946</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>97.19498906786288</v>
+        <v>97.19498906781581</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>97.0787731555735</v>
+        <v>97.07877315562978</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>97.70278314028553</v>
+        <v>97.70278314012839</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>96.15158665245767</v>
+        <v>96.15158665239412</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>97.32756135043159</v>
+        <v>97.32756135045238</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>91.85654434163041</v>
+        <v>91.85654434162964</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>85.96701871451646</v>
+        <v>85.96701871454917</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>85.22297830672498</v>
+        <v>85.22297830670794</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>83.45719033320144</v>
+        <v>83.45719030687742</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>81.30077539983287</v>
+        <v>81.30077537825071</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>72.56912179607367</v>
+        <v>72.56912179616134</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>70.19720473624292</v>
+        <v>70.19720473636113</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>62.95750496122498</v>
+        <v>62.95750496130308</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>58.55147619974014</v>
+        <v>58.55147619973638</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>62.64456114435709</v>
+        <v>62.64456114449466</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>55.1279195127287</v>
+        <v>55.12791951270884</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>55.1267649957306</v>
+        <v>55.12676499575249</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>52.18581544923558</v>
+        <v>52.18581544925412</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>41.35431871026153</v>
+        <v>41.35431871035073</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>37.64058139283944</v>
+        <v>37.64058139278421</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>26.9307837079706</v>
+        <v>26.93078370811304</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>24.24111313601648</v>
+        <v>24.24111313593419</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>14.85058224080892</v>
+        <v>14.85058224076559</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7.290859052819003</v>
+        <v>7.290859052809296</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>15.90795613745808</v>
+        <v>15.90795613741686</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>32.99378996971537</v>
+        <v>32.99378996979716</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>46.79094671509814</v>
+        <v>46.79094671489717</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>51.20288794477722</v>
+        <v>51.20288794471699</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>55.10021105248452</v>
+        <v>55.10021105263417</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>63.59445671041905</v>
+        <v>63.59445671019336</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>78.63807461916142</v>
+        <v>78.63807461926835</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>81.42316126486699</v>
+        <v>81.42316126481394</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>85.65070664345158</v>
+        <v>85.65070664341607</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>86.09130558428453</v>
+        <v>86.09130558439233</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>84.01848199936283</v>
+        <v>84.01848199943356</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>80.84483929583227</v>
+        <v>80.84483929586666</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>79.07375696664405</v>
+        <v>79.07375696670601</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>80.46772196465808</v>
+        <v>80.46772196458171</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>68.35853826580977</v>
+        <v>68.35853826575703</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>69.09326077975064</v>
+        <v>69.09326077985362</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>56.57281310870302</v>
+        <v>56.57281310878859</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>64.00555771155422</v>
+        <v>64.00555771132397</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>44.28449560235813</v>
+        <v>44.28449560242763</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>43.81461522380131</v>
+        <v>43.81461522381785</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>29.83596944329487</v>
+        <v>29.83596944344</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>24.86071982637524</v>
+        <v>24.86071982641043</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>21.743754400866</v>
+        <v>21.74375440080488</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>15.13957154490628</v>
+        <v>15.13957154487131</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7.850171028198062</v>
+        <v>7.850171028236607</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>8.53080309959617</v>
+        <v>8.530803099650651</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>8.754299282820845</v>
+        <v>8.75429928277509</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>13.05867595339835</v>
+        <v>13.0586759535309</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>12.66004856647939</v>
+        <v>12.66004856659039</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>12.78562286851664</v>
+        <v>12.78562286859952</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>13.81014422598436</v>
+        <v>13.8101442258482</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>11.19201844899932</v>
+        <v>11.19201844916213</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>11.50091230933955</v>
+        <v>11.50091230936062</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>14.8250045415869</v>
+        <v>14.82500454168385</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>17.50349966495321</v>
+        <v>17.5034996648733</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>17.47205384390035</v>
+        <v>17.47205384384117</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>11.95733975805723</v>
+        <v>11.95733975794889</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>11.43252377392771</v>
+        <v>11.43252377403385</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>12.91526204274559</v>
+        <v>12.91526204280182</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>14.95813843920033</v>
+        <v>14.9581384392302</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>15.35861734387684</v>
+        <v>15.3586173438477</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>17.86812994880194</v>
+        <v>17.86812994881863</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>13.82392026273533</v>
+        <v>13.82392026282154</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>17.40782270745728</v>
+        <v>17.4078227074173</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>22.42906825291551</v>
+        <v>22.42906825307183</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>17.1312348342845</v>
+        <v>17.13123483429526</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>13.7704682393229</v>
+        <v>13.77046823924997</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>21.0452920395058</v>
+        <v>21.04529203945769</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>20.23891573056335</v>
+        <v>20.23891573052907</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>14.18897207222873</v>
+        <v>14.18897207226596</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>24.70752580285575</v>
+        <v>24.70752580273139</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>19.63804256514888</v>
+        <v>19.6380425650605</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>16.83399057248734</v>
+        <v>16.83399057254284</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>16.68654810554611</v>
+        <v>16.68654810537353</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>10.34899300186942</v>
+        <v>10.34899300178896</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>17.14601440312299</v>
+        <v>17.14601440335673</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>15.51643397764273</v>
+        <v>15.51643397771259</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>16.68114812807798</v>
+        <v>16.68114812814272</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>20.1148095401186</v>
+        <v>20.11480953986444</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>21.0980112569278</v>
+        <v>21.09801125675363</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>29.93475029921074</v>
+        <v>29.9347502990024</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>35.69937158782985</v>
+        <v>35.69937158794726</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>49.47073325058241</v>
+        <v>49.47073325063361</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>56.09814287448868</v>
+        <v>56.09814287447629</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>61.80712942885116</v>
+        <v>61.80712942882403</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>67.45477199394536</v>
+        <v>67.45477199392026</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>78.22232410816324</v>
+        <v>78.2223241082565</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>82.61666837100394</v>
+        <v>82.61666832662713</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>89.77041883100576</v>
+        <v>89.77041883098414</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>91.75554792438244</v>
+        <v>91.75554792425714</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>96.37548845671253</v>
+        <v>96.3754884566208</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>99.73831390438592</v>
+        <v>99.73831390456938</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>98.57489926933953</v>
+        <v>98.57489926929247</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>97.59653936703342</v>
+        <v>97.59653936677009</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>96.82391117300354</v>
+        <v>96.82391117297831</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>95.06568891658368</v>
+        <v>95.06568891662563</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>87.30486591870634</v>
+        <v>87.30486591859399</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>87.60564709867035</v>
+        <v>87.60564709866723</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>88.97957958958344</v>
+        <v>88.97957958970736</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>84.26828291033273</v>
+        <v>84.26828291047241</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>79.42755873322473</v>
+        <v>79.42755873325527</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>79.72816012495869</v>
+        <v>79.72816012486076</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>75.34588998488816</v>
+        <v>75.34588998481235</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>69.52427008433199</v>
+        <v>69.52427008420459</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>67.30803667860211</v>
+        <v>67.30803667867346</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>65.4013062013281</v>
+        <v>65.40130620123198</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>66.85844580978717</v>
+        <v>66.85844580984909</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>58.46936747386924</v>
+        <v>58.46936747396398</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>51.64932097493037</v>
+        <v>51.64932097512395</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>48.72225569137137</v>
+        <v>48.72225569127021</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>48.63949752152815</v>
+        <v>48.63949752150648</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>44.14388145954133</v>
+        <v>44.1438814593746</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>23.53445344285106</v>
+        <v>23.5344534428815</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>22.80004142065731</v>
+        <v>22.80004142049039</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>12.37433792795193</v>
+        <v>12.37433792798256</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>8.736265526633614</v>
+        <v>8.736265526639547</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>15.59441606165396</v>
+        <v>15.59441606166281</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>30.83704854488521</v>
+        <v>30.83704854487288</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>38.7527891909695</v>
+        <v>38.75278919086649</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>49.07814212175185</v>
+        <v>49.0781421215251</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>57.10690147178954</v>
+        <v>57.10690147182667</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>66.00606960949548</v>
+        <v>66.00606960932153</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>75.86753985417593</v>
+        <v>75.86753985414076</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>75.46608277464529</v>
+        <v>75.46608277467132</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>81.92810368846585</v>
+        <v>81.9281036885166</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>81.84854916136828</v>
+        <v>81.84854916140027</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>87.80876016108837</v>
+        <v>87.80876016105316</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>85.50154202507659</v>
+        <v>85.50154202505695</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>81.26865074838308</v>
+        <v>81.26865074835874</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>77.71606276183142</v>
+        <v>77.71606276173704</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>71.33707692861732</v>
+        <v>71.33707692859723</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>67.60030533445413</v>
+        <v>67.60030533442693</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>62.28795991671016</v>
+        <v>62.28795991667786</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>50.19062964200201</v>
+        <v>50.1906296420919</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>50.09121281669891</v>
+        <v>50.09121281683444</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>43.56172464259107</v>
+        <v>43.56172464266896</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>29.96362488660778</v>
+        <v>29.9636248865462</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>26.55839958029723</v>
+        <v>26.55839958031498</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>17.53899616046614</v>
+        <v>17.53899616050294</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>10.87989703341565</v>
+        <v>10.87989703351422</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>9.376762272918416</v>
+        <v>9.376762272918446</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>7.878327624853609</v>
+        <v>7.878327624825389</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>13.16097323998805</v>
+        <v>13.16097323984409</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>12.15292631964999</v>
+        <v>12.1529263197562</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>13.09775589191654</v>
+        <v>13.09775589198559</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>14.57395527271353</v>
+        <v>14.57395527271706</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>12.97444355990543</v>
+        <v>12.97444355968265</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>10.9770221474197</v>
+        <v>10.97702214726281</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>10.3977293552299</v>
+        <v>10.39772935519814</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>13.05896619457031</v>
+        <v>13.05896619464427</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>10.54202597862358</v>
+        <v>10.5420259785709</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>14.5137864800623</v>
+        <v>14.51378647996369</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>10.28115147677099</v>
+        <v>10.28115147664895</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>10.33330240014354</v>
+        <v>10.33330240026458</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>12.37393755206047</v>
+        <v>12.37393755207618</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>13.22164421404224</v>
+        <v>13.2216442142067</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>17.04889608992072</v>
+        <v>17.04889608995573</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>10.8736115836753</v>
+        <v>10.87361158359716</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>12.90536497311443</v>
+        <v>12.90536497309082</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>15.33065366376075</v>
+        <v>15.33065366370922</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>12.80191583938519</v>
+        <v>12.80191583942394</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>17.06680119397452</v>
+        <v>17.06680119391014</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>16.97147186479686</v>
+        <v>16.97147186478203</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>21.26266443705221</v>
+        <v>21.26266443715497</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>18.54839315488465</v>
+        <v>18.5483931549955</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>27.5037364500161</v>
+        <v>27.50373645019918</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>23.02363272793734</v>
+        <v>23.02363272787692</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>23.01288573133816</v>
+        <v>23.01288573131641</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>23.00163755902602</v>
+        <v>23.00163755905523</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>19.48377874163829</v>
+        <v>19.48377874167311</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>27.39137275854017</v>
+        <v>27.39137275847883</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>31.38947731537599</v>
+        <v>31.38947731541379</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>25.24169501006959</v>
+        <v>25.24169501002116</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>33.17756812763647</v>
+        <v>33.17756812753265</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>35.7342993631859</v>
+        <v>35.73429936318441</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>39.60934973898575</v>
+        <v>39.60934973891968</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>34.44493349824933</v>
+        <v>34.44493349816857</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>48.07260351537874</v>
+        <v>48.0726035153407</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>47.2433906955613</v>
+        <v>47.24339069546108</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>45.75471849360657</v>
+        <v>45.7547184936702</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>53.82031112707298</v>
+        <v>53.8203111271436</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>56.24551061086876</v>
+        <v>56.24551061089689</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>56.35882236012731</v>
+        <v>56.35882236013078</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>55.35502443092257</v>
+        <v>55.35502443084788</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>55.92220959926566</v>
+        <v>55.92220959916152</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>59.55532829924199</v>
+        <v>59.55532829930183</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>63.70283677111112</v>
+        <v>63.70283677102721</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>60.5826432035913</v>
+        <v>60.58264320361869</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>65.85363073149732</v>
+        <v>65.85363073168602</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>65.4349262749945</v>
+        <v>65.43492627502228</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>65.72412581886461</v>
+        <v>65.72412581910882</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>69.43917750260734</v>
+        <v>69.43917750236648</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>63.27503581734762</v>
+        <v>63.2750358174223</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>67.27195947116449</v>
+        <v>67.27195947132853</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>60.96595438271169</v>
+        <v>60.96595438253271</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>61.97929765940307</v>
+        <v>61.97929765934526</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>57.50624729828757</v>
+        <v>57.5062472982067</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>57.65873494519105</v>
+        <v>57.65873494512446</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>52.21967460977363</v>
+        <v>52.21967460979947</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>49.15862875391985</v>
+        <v>49.15862875389664</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>49.93503961685308</v>
+        <v>49.93503961676154</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>43.07622957825453</v>
+        <v>43.07622957836065</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>35.0289338393823</v>
+        <v>35.02893383939347</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>35.13082798216503</v>
+        <v>35.13082798200819</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>28.80652915467138</v>
+        <v>28.80652915482725</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>27.74479440747573</v>
+        <v>27.74479440761459</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>20.9738138893044</v>
+        <v>20.97381388916203</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>14.45741378251974</v>
+        <v>14.45741378251766</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>8.807554803780084</v>
+        <v>8.807554803886564</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>10.60395889865969</v>
+        <v>10.6039588985976</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>11.22165019126291</v>
+        <v>11.22165019127826</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>27.66535835208424</v>
+        <v>27.6653583521291</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>38.863804526423</v>
+        <v>38.86380452635551</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>49.68114744592106</v>
+        <v>49.68114744591133</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>62.95659931704761</v>
+        <v>62.95659931710955</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>72.2149250080553</v>
+        <v>72.21492500783488</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>74.03643938925765</v>
+        <v>74.03643938929575</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>77.73802659670179</v>
+        <v>77.73802659671479</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>90.46612370468441</v>
+        <v>90.4661237046916</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>96.76540626997475</v>
+        <v>96.76540626983129</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>93.90774394370956</v>
+        <v>93.90774383221773</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>86.50553237338436</v>
+        <v>86.50553237344391</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>90.62992464452174</v>
+        <v>90.62992464447979</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>97.73367890392288</v>
+        <v>97.73367890388556</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>90.17539637906518</v>
+        <v>90.17539637891662</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>88.55237882822743</v>
+        <v>88.55237882827167</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>90.93889539988635</v>
+        <v>90.93889539984004</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>80.56406519528814</v>
+        <v>80.56406519537555</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>70.97762693366772</v>
+        <v>70.97762693369782</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>62.4698553082679</v>
+        <v>62.46985530816951</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>63.8328761526418</v>
+        <v>63.83287615259704</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>50.52203225880613</v>
+        <v>50.52203225871052</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>35.09448967218864</v>
+        <v>35.0944896720506</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>31.56138405157611</v>
+        <v>31.56138405157986</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>23.37516313094616</v>
+        <v>23.37516313090954</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>15.1491515969468</v>
+        <v>15.14915159707467</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>11.31084202536301</v>
+        <v>11.31084202540206</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>10.6228986740548</v>
+        <v>10.62289867401844</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>10.06930877532116</v>
+        <v>10.0693087751491</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7.988136092393328</v>
+        <v>7.988136092345909</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>9.948489626525697</v>
+        <v>9.948489626572551</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>10.95325007544545</v>
+        <v>10.95325007561062</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>9.965523105329469</v>
+        <v>9.965523105261173</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>12.91518011878406</v>
+        <v>12.91518011884632</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>8.953428849580595</v>
+        <v>8.953428849433667</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>9.255147062869733</v>
+        <v>9.255147062900456</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>11.40492860804061</v>
+        <v>11.40492860809098</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>14.32571924110698</v>
+        <v>14.32571924098756</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>16.5647090401759</v>
+        <v>16.56470904017648</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>14.0566724241813</v>
+        <v>14.05667242398211</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>13.38909494266594</v>
+        <v>13.38909494256207</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>11.46698624036603</v>
+        <v>11.46698624044825</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>12.54921465809336</v>
+        <v>12.54921465810908</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>15.24580639750606</v>
+        <v>15.2458063974647</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>13.0710604660617</v>
+        <v>13.07106046594703</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>15.02191582114974</v>
+        <v>15.02191582107957</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>16.94702969460011</v>
+        <v>16.94702969463291</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>13.90306645025263</v>
+        <v>13.90306645043726</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>16.48287921048887</v>
+        <v>16.48287921055548</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>20.7830355019973</v>
+        <v>20.78303550189599</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>29.56145250990962</v>
+        <v>29.56145250975396</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>27.83583283809761</v>
+        <v>27.83583283813676</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>36.10807893242457</v>
+        <v>36.10807893239284</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>33.20991613499028</v>
+        <v>33.20991613498894</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>42.63487654460516</v>
+        <v>42.63487654461574</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>50.97710626753934</v>
+        <v>50.9771062674694</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>45.35757176534621</v>
+        <v>45.35757176531025</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>47.56955906225107</v>
+        <v>47.56955906208982</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>53.31070210165571</v>
+        <v>53.31070210175574</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>61.91973590304885</v>
+        <v>61.9197359031261</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>69.98655674419024</v>
+        <v>69.98655674416459</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>63.19595309570802</v>
+        <v>63.19595309565269</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>63.17940134019804</v>
+        <v>63.17940134013831</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>64.955388038376</v>
+        <v>64.95538803851613</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>62.22013181597797</v>
+        <v>62.22013181590802</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>63.97746504539032</v>
+        <v>63.97746504528927</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>60.39643712856891</v>
+        <v>60.39643712853569</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>55.35015047436259</v>
+        <v>55.35015047433179</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>59.09708169811012</v>
+        <v>59.09708169810649</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>47.84416784784364</v>
+        <v>47.84416784781153</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>50.29832278830323</v>
+        <v>50.29832278834687</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>38.25207460647956</v>
+        <v>38.25207460640413</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>43.76125987563493</v>
+        <v>43.76125987563452</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>37.76427073264544</v>
+        <v>37.76427073252619</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>38.29184073280996</v>
+        <v>38.29184073275442</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>34.00841118277646</v>
+        <v>34.00841118276569</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>22.13848203433946</v>
+        <v>22.13848203427043</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>24.13940337573059</v>
+        <v>24.13940337552286</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>24.6695347919335</v>
+        <v>24.66953479185588</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>21.05671970843899</v>
+        <v>21.05671970834077</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>26.56267575995307</v>
+        <v>26.56267576008196</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>31.50443228727753</v>
+        <v>31.50443228731071</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>33.05936280853478</v>
+        <v>33.05936280844652</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>27.2762329827846</v>
+        <v>27.27623298285358</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>35.47960761024747</v>
+        <v>35.47960761022063</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>34.80904267671576</v>
+        <v>34.80904267681632</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>35.37905966154848</v>
+        <v>35.37905966151372</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>43.87070501345666</v>
+        <v>43.87070501350103</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>40.14574563367003</v>
+        <v>40.14574563370454</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>42.92250103492318</v>
+        <v>42.92250103489884</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>38.06944436088314</v>
+        <v>38.06944436083221</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>33.1898776216029</v>
+        <v>33.18987762161937</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>36.32272773907561</v>
+        <v>36.32272773903898</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>20.19667749464222</v>
+        <v>20.19667749467109</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>27.78765824008876</v>
+        <v>27.78765824010526</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>13.55034769078499</v>
+        <v>13.55034769066254</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>14.62094812113977</v>
+        <v>14.62094812120104</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>7.715230259519249</v>
+        <v>7.715230259403332</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>8.145519415246186</v>
+        <v>8.145519415278693</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>9.122239645828092</v>
+        <v>9.122239645860237</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>13.89500366804601</v>
+        <v>13.89500366807657</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>31.09584022934943</v>
+        <v>31.09584022939457</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>42.82867698826086</v>
+        <v>42.82867698825157</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>51.05461994171488</v>
+        <v>51.05461994175388</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>58.2491974992651</v>
+        <v>58.24919749933135</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>58.89625660012885</v>
+        <v>58.896256600179</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>65.56963117421309</v>
+        <v>65.56963117405682</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>69.01552403616382</v>
+        <v>69.01552403614085</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>75.48657175106767</v>
+        <v>75.4865717510834</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>71.63638191221466</v>
+        <v>71.63638191234683</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>73.11428860924875</v>
+        <v>73.11428860925928</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>68.31922263493183</v>
+        <v>68.31922263508115</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>68.74190606420844</v>
+        <v>68.74190606429926</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>63.62558685132822</v>
+        <v>63.62558685128181</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>54.72618139947274</v>
+        <v>54.72618139930942</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>49.37924426110501</v>
+        <v>49.37924426106821</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>46.99719135977069</v>
+        <v>46.99719135986317</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>34.12656194866785</v>
+        <v>34.12656194876416</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>32.99623091769725</v>
+        <v>32.99623091764919</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>29.18603086905713</v>
+        <v>29.18603086901832</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>20.12546079437011</v>
+        <v>20.12546079456156</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>10.72682548005763</v>
+        <v>10.72682548008887</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>8.537063081779877</v>
+        <v>8.537063081800166</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>7.829748841762115</v>
+        <v>7.82974884189471</v>
       </c>
     </row>
   </sheetData>
